--- a/SLIM_Bitcoin_Compression_Result_Summary.xlsx
+++ b/SLIM_Bitcoin_Compression_Result_Summary.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoinc\Dropbox\PHD\My_Thesis\Indiv_Chapters_RW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoinc\Dropbox\PHD\My_Thesis\Viva_RW\Corrections_RW\Result_Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71AEC80-F8DB-4C1A-B059-C0EF156AD4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A97D960-A4A5-404F-A3AE-F1D370CCF79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="600" windowWidth="40635" windowHeight="14880" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8295" yWindow="4545" windowWidth="23250" windowHeight="14970" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day Level" sheetId="16" r:id="rId1"/>
     <sheet name="Hourly Level" sheetId="17" r:id="rId2"/>
     <sheet name="10 Minute Level" sheetId="18" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="87">
   <si>
     <t>SLIM Comp Rate %
 StdDev</t>
@@ -283,6 +294,21 @@
   <si>
     <t>Minute
 To</t>
+  </si>
+  <si>
+    <t>16-Dec-2017 21:10:00</t>
+  </si>
+  <si>
+    <t>16-Dec-2017 21:20:00</t>
+  </si>
+  <si>
+    <t>16-Dec-2017 21:30:00</t>
+  </si>
+  <si>
+    <t>16-Dec-2017 21:40:00</t>
+  </si>
+  <si>
+    <t>16-Dec-2017 21:50:00</t>
   </si>
 </sst>
 </file>
@@ -356,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -370,11 +396,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -382,11 +405,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,7 +697,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,33 +705,33 @@
     <col min="1" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -735,8 +758,8 @@
       <c r="B3" s="3">
         <v>43085</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.91259999999999997</v>
+      <c r="C3" s="5">
+        <v>91.259999999999991</v>
       </c>
       <c r="D3" s="4">
         <v>2.6200000000000001E-2</v>
@@ -744,8 +767,8 @@
       <c r="E3" s="4">
         <v>241.59450000000001</v>
       </c>
-      <c r="F3" s="4">
-        <v>0.59240000000000004</v>
+      <c r="F3" s="5">
+        <v>59.24</v>
       </c>
       <c r="G3" s="4">
         <v>6.9099999999999995E-2</v>
@@ -761,8 +784,8 @@
       <c r="B4" s="3">
         <v>43086</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.96509999999999996</v>
+      <c r="C4" s="5">
+        <v>96.509999999999991</v>
       </c>
       <c r="D4" s="4">
         <v>1.4200000000000001E-2</v>
@@ -770,8 +793,8 @@
       <c r="E4" s="4">
         <v>636.4402</v>
       </c>
-      <c r="F4" s="4">
-        <v>0.72660000000000002</v>
+      <c r="F4" s="5">
+        <v>72.66</v>
       </c>
       <c r="G4" s="4">
         <v>2.0299999999999999E-2</v>
@@ -787,8 +810,8 @@
       <c r="B5" s="3">
         <v>43087</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.90620000000000001</v>
+      <c r="C5" s="5">
+        <v>90.62</v>
       </c>
       <c r="D5" s="4">
         <v>2.9899999999999999E-2</v>
@@ -796,8 +819,8 @@
       <c r="E5" s="4">
         <v>191.29230000000001</v>
       </c>
-      <c r="F5" s="4">
-        <v>0.58089999999999997</v>
+      <c r="F5" s="5">
+        <v>58.089999999999996</v>
       </c>
       <c r="G5" s="4">
         <v>6.7199999999999996E-2</v>
@@ -813,8 +836,8 @@
       <c r="B6" s="3">
         <v>43088</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.89380000000000004</v>
+      <c r="C6" s="5">
+        <v>89.38000000000001</v>
       </c>
       <c r="D6" s="4">
         <v>3.4299999999999997E-2</v>
@@ -822,8 +845,8 @@
       <c r="E6" s="4">
         <v>235.8895</v>
       </c>
-      <c r="F6" s="4">
-        <v>0.53469999999999995</v>
+      <c r="F6" s="5">
+        <v>53.47</v>
       </c>
       <c r="G6" s="4">
         <v>6.6199999999999995E-2</v>
@@ -839,8 +862,8 @@
       <c r="B7" s="3">
         <v>43089</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.94010000000000005</v>
+      <c r="C7" s="5">
+        <v>94.01</v>
       </c>
       <c r="D7" s="4">
         <v>2.2200000000000001E-2</v>
@@ -848,8 +871,8 @@
       <c r="E7" s="4">
         <v>599.74130000000002</v>
       </c>
-      <c r="F7" s="4">
-        <v>0.57869999999999999</v>
+      <c r="F7" s="5">
+        <v>57.87</v>
       </c>
       <c r="G7" s="4">
         <v>6.6299999999999998E-2</v>
@@ -860,10 +883,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -874,10 +897,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A2:Q28"/>
+  <dimension ref="A2:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,42 +922,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="J2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -953,8 +976,8 @@
       <c r="H3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="1" t="s">
         <v>3</v>
       </c>
@@ -981,8 +1004,8 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.89070000000000005</v>
+      <c r="C4" s="5">
+        <v>89.070000000000007</v>
       </c>
       <c r="D4" s="4">
         <v>3.32E-2</v>
@@ -990,8 +1013,8 @@
       <c r="E4" s="4">
         <v>35.295999999999999</v>
       </c>
-      <c r="F4" s="4">
-        <v>0.58599999999999997</v>
+      <c r="F4" s="5">
+        <v>58.599999999999994</v>
       </c>
       <c r="G4" s="4">
         <v>8.1199999999999994E-2</v>
@@ -1005,8 +1028,8 @@
       <c r="K4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="4">
-        <v>0.87070000000000003</v>
+      <c r="L4" s="5">
+        <v>87.070000000000007</v>
       </c>
       <c r="M4" s="4">
         <v>3.8300000000000001E-2</v>
@@ -1014,8 +1037,8 @@
       <c r="N4" s="4">
         <v>302.58260000000001</v>
       </c>
-      <c r="O4" s="4">
-        <v>0.56420000000000003</v>
+      <c r="O4" s="5">
+        <v>56.42</v>
       </c>
       <c r="P4" s="4">
         <v>4.0800000000000003E-2</v>
@@ -1031,8 +1054,8 @@
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.83740000000000003</v>
+      <c r="C5" s="5">
+        <v>83.740000000000009</v>
       </c>
       <c r="D5" s="4">
         <v>3.4599999999999999E-2</v>
@@ -1040,8 +1063,8 @@
       <c r="E5" s="4">
         <v>22.580500000000001</v>
       </c>
-      <c r="F5" s="4">
-        <v>0.69810000000000005</v>
+      <c r="F5" s="5">
+        <v>69.81</v>
       </c>
       <c r="G5" s="4">
         <v>2.4500000000000001E-2</v>
@@ -1055,8 +1078,8 @@
       <c r="K5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="4">
-        <v>0.79079999999999995</v>
+      <c r="L5" s="5">
+        <v>79.08</v>
       </c>
       <c r="M5" s="4">
         <v>6.0400000000000002E-2</v>
@@ -1064,8 +1087,8 @@
       <c r="N5" s="4">
         <v>170.68889999999999</v>
       </c>
-      <c r="O5" s="4">
-        <v>0.49180000000000001</v>
+      <c r="O5" s="5">
+        <v>49.18</v>
       </c>
       <c r="P5" s="4">
         <v>4.1399999999999999E-2</v>
@@ -1081,8 +1104,8 @@
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.89459999999999995</v>
+      <c r="C6" s="5">
+        <v>89.46</v>
       </c>
       <c r="D6" s="4">
         <v>2.76E-2</v>
@@ -1090,8 +1113,8 @@
       <c r="E6" s="4">
         <v>38.108499999999999</v>
       </c>
-      <c r="F6" s="4">
-        <v>0.60640000000000005</v>
+      <c r="F6" s="5">
+        <v>60.640000000000008</v>
       </c>
       <c r="G6" s="4">
         <v>8.6400000000000005E-2</v>
@@ -1105,8 +1128,8 @@
       <c r="K6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="4">
-        <v>0.84499999999999997</v>
+      <c r="L6" s="5">
+        <v>84.5</v>
       </c>
       <c r="M6" s="4">
         <v>4.7899999999999998E-2</v>
@@ -1114,8 +1137,8 @@
       <c r="N6" s="4">
         <v>199.0539</v>
       </c>
-      <c r="O6" s="4">
-        <v>0.55459999999999998</v>
+      <c r="O6" s="5">
+        <v>55.46</v>
       </c>
       <c r="P6" s="4">
         <v>3.6799999999999999E-2</v>
@@ -1131,8 +1154,8 @@
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.86260000000000003</v>
+      <c r="C7" s="5">
+        <v>86.26</v>
       </c>
       <c r="D7" s="4">
         <v>3.5700000000000003E-2</v>
@@ -1140,8 +1163,8 @@
       <c r="E7" s="4">
         <v>25.672599999999999</v>
       </c>
-      <c r="F7" s="4">
-        <v>0.64959999999999996</v>
+      <c r="F7" s="5">
+        <v>64.959999999999994</v>
       </c>
       <c r="G7" s="4">
         <v>6.4500000000000002E-2</v>
@@ -1155,8 +1178,8 @@
       <c r="K7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="4">
-        <v>0.76800000000000002</v>
+      <c r="L7" s="5">
+        <v>76.8</v>
       </c>
       <c r="M7" s="4">
         <v>5.5500000000000001E-2</v>
@@ -1164,8 +1187,8 @@
       <c r="N7" s="4">
         <v>59.625100000000003</v>
       </c>
-      <c r="O7" s="4">
-        <v>0.55149999999999999</v>
+      <c r="O7" s="5">
+        <v>55.15</v>
       </c>
       <c r="P7" s="4">
         <v>3.5299999999999998E-2</v>
@@ -1181,8 +1204,8 @@
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.89749999999999996</v>
+      <c r="C8" s="5">
+        <v>89.75</v>
       </c>
       <c r="D8" s="4">
         <v>2.7900000000000001E-2</v>
@@ -1190,8 +1213,8 @@
       <c r="E8" s="4">
         <v>27.606999999999999</v>
       </c>
-      <c r="F8" s="4">
-        <v>0.70209999999999995</v>
+      <c r="F8" s="5">
+        <v>70.209999999999994</v>
       </c>
       <c r="G8" s="4">
         <v>6.4100000000000004E-2</v>
@@ -1205,8 +1228,8 @@
       <c r="K8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="4">
-        <v>0.83479999999999999</v>
+      <c r="L8" s="5">
+        <v>83.48</v>
       </c>
       <c r="M8" s="4">
         <v>4.7399999999999998E-2</v>
@@ -1214,8 +1237,8 @@
       <c r="N8" s="4">
         <v>84.034899999999993</v>
       </c>
-      <c r="O8" s="4">
-        <v>0.51359999999999995</v>
+      <c r="O8" s="5">
+        <v>51.359999999999992</v>
       </c>
       <c r="P8" s="4">
         <v>7.3599999999999999E-2</v>
@@ -1231,8 +1254,8 @@
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.91930000000000001</v>
+      <c r="C9" s="5">
+        <v>91.93</v>
       </c>
       <c r="D9" s="4">
         <v>2.07E-2</v>
@@ -1240,8 +1263,8 @@
       <c r="E9" s="4">
         <v>17.3005</v>
       </c>
-      <c r="F9" s="4">
-        <v>0.64070000000000005</v>
+      <c r="F9" s="5">
+        <v>64.070000000000007</v>
       </c>
       <c r="G9" s="4">
         <v>6.7500000000000004E-2</v>
@@ -1255,8 +1278,8 @@
       <c r="K9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="4">
-        <v>0.87119999999999997</v>
+      <c r="L9" s="5">
+        <v>87.12</v>
       </c>
       <c r="M9" s="4">
         <v>3.7600000000000001E-2</v>
@@ -1264,8 +1287,8 @@
       <c r="N9" s="4">
         <v>90.077799999999996</v>
       </c>
-      <c r="O9" s="4">
-        <v>0.56730000000000003</v>
+      <c r="O9" s="5">
+        <v>56.730000000000004</v>
       </c>
       <c r="P9" s="4">
         <v>7.9200000000000007E-2</v>
@@ -1281,8 +1304,8 @@
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4">
-        <v>0.89180000000000004</v>
+      <c r="C10" s="5">
+        <v>89.18</v>
       </c>
       <c r="D10" s="4">
         <v>3.4799999999999998E-2</v>
@@ -1290,8 +1313,8 @@
       <c r="E10" s="4">
         <v>42.737000000000002</v>
       </c>
-      <c r="F10" s="4">
-        <v>0.56200000000000006</v>
+      <c r="F10" s="5">
+        <v>56.2</v>
       </c>
       <c r="G10" s="4">
         <v>7.6100000000000001E-2</v>
@@ -1305,8 +1328,8 @@
       <c r="K10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="4">
-        <v>0.8397</v>
+      <c r="L10" s="5">
+        <v>83.97</v>
       </c>
       <c r="M10" s="4">
         <v>3.9800000000000002E-2</v>
@@ -1314,8 +1337,8 @@
       <c r="N10" s="4">
         <v>52.1967</v>
       </c>
-      <c r="O10" s="4">
-        <v>0.57210000000000005</v>
+      <c r="O10" s="5">
+        <v>57.210000000000008</v>
       </c>
       <c r="P10" s="4">
         <v>7.4800000000000005E-2</v>
@@ -1331,8 +1354,8 @@
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4">
-        <v>0.89139999999999997</v>
+      <c r="C11" s="5">
+        <v>89.14</v>
       </c>
       <c r="D11" s="4">
         <v>2.75E-2</v>
@@ -1340,8 +1363,8 @@
       <c r="E11" s="4">
         <v>79.138300000000001</v>
       </c>
-      <c r="F11" s="4">
-        <v>0.71609999999999996</v>
+      <c r="F11" s="5">
+        <v>71.61</v>
       </c>
       <c r="G11" s="4">
         <v>2.9000000000000001E-2</v>
@@ -1355,8 +1378,8 @@
       <c r="K11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="4">
-        <v>0.89690000000000003</v>
+      <c r="L11" s="5">
+        <v>89.69</v>
       </c>
       <c r="M11" s="4">
         <v>3.5099999999999999E-2</v>
@@ -1364,8 +1387,8 @@
       <c r="N11" s="4">
         <v>105.8361</v>
       </c>
-      <c r="O11" s="4">
-        <v>0.70020000000000004</v>
+      <c r="O11" s="5">
+        <v>70.02000000000001</v>
       </c>
       <c r="P11" s="4">
         <v>2.23E-2</v>
@@ -1381,8 +1404,8 @@
       <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4">
-        <v>0.85340000000000005</v>
+      <c r="C12" s="5">
+        <v>85.34</v>
       </c>
       <c r="D12" s="4">
         <v>4.0599999999999997E-2</v>
@@ -1390,8 +1413,8 @@
       <c r="E12" s="4">
         <v>63.046700000000001</v>
       </c>
-      <c r="F12" s="4">
-        <v>0.58660000000000001</v>
+      <c r="F12" s="5">
+        <v>58.660000000000004</v>
       </c>
       <c r="G12" s="4">
         <v>6.2899999999999998E-2</v>
@@ -1405,8 +1428,8 @@
       <c r="K12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="4">
-        <v>0.82220000000000004</v>
+      <c r="L12" s="5">
+        <v>82.22</v>
       </c>
       <c r="M12" s="4">
         <v>5.45E-2</v>
@@ -1414,8 +1437,8 @@
       <c r="N12" s="4">
         <v>70.166799999999995</v>
       </c>
-      <c r="O12" s="4">
-        <v>0.53159999999999996</v>
+      <c r="O12" s="5">
+        <v>53.16</v>
       </c>
       <c r="P12" s="4">
         <v>7.8399999999999997E-2</v>
@@ -1431,8 +1454,8 @@
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4">
-        <v>0.85529999999999995</v>
+      <c r="C13" s="5">
+        <v>85.53</v>
       </c>
       <c r="D13" s="4">
         <v>2.6700000000000002E-2</v>
@@ -1440,8 +1463,8 @@
       <c r="E13" s="4">
         <v>21.6343</v>
       </c>
-      <c r="F13" s="4">
-        <v>0.624</v>
+      <c r="F13" s="5">
+        <v>62.4</v>
       </c>
       <c r="G13" s="4">
         <v>7.5200000000000003E-2</v>
@@ -1455,8 +1478,8 @@
       <c r="K13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="4">
-        <v>0.76739999999999997</v>
+      <c r="L13" s="5">
+        <v>76.739999999999995</v>
       </c>
       <c r="M13" s="4">
         <v>6.1699999999999998E-2</v>
@@ -1464,8 +1487,8 @@
       <c r="N13" s="4">
         <v>53.7851</v>
       </c>
-      <c r="O13" s="4">
-        <v>0.52839999999999998</v>
+      <c r="O13" s="5">
+        <v>52.839999999999996</v>
       </c>
       <c r="P13" s="4">
         <v>6.4899999999999999E-2</v>
@@ -1481,8 +1504,8 @@
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.86399999999999999</v>
+      <c r="C14" s="5">
+        <v>86.4</v>
       </c>
       <c r="D14" s="4">
         <v>3.3700000000000001E-2</v>
@@ -1490,8 +1513,8 @@
       <c r="E14" s="4">
         <v>37.161999999999999</v>
       </c>
-      <c r="F14" s="4">
-        <v>0.60680000000000001</v>
+      <c r="F14" s="5">
+        <v>60.68</v>
       </c>
       <c r="G14" s="4">
         <v>5.96E-2</v>
@@ -1505,8 +1528,8 @@
       <c r="K14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="4">
-        <v>0.83950000000000002</v>
+      <c r="L14" s="5">
+        <v>83.95</v>
       </c>
       <c r="M14" s="4">
         <v>4.3700000000000003E-2</v>
@@ -1514,8 +1537,8 @@
       <c r="N14" s="4">
         <v>43.785800000000002</v>
       </c>
-      <c r="O14" s="4">
-        <v>0.56589999999999996</v>
+      <c r="O14" s="5">
+        <v>56.589999999999996</v>
       </c>
       <c r="P14" s="4">
         <v>7.3800000000000004E-2</v>
@@ -1531,8 +1554,8 @@
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="4">
-        <v>0.87980000000000003</v>
+      <c r="C15" s="5">
+        <v>87.98</v>
       </c>
       <c r="D15" s="4">
         <v>3.3000000000000002E-2</v>
@@ -1540,8 +1563,8 @@
       <c r="E15" s="4">
         <v>67.552000000000007</v>
       </c>
-      <c r="F15" s="4">
-        <v>0.60289999999999999</v>
+      <c r="F15" s="5">
+        <v>60.29</v>
       </c>
       <c r="G15" s="4">
         <v>7.0400000000000004E-2</v>
@@ -1555,8 +1578,8 @@
       <c r="K15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="4">
-        <v>0.86150000000000004</v>
+      <c r="L15" s="5">
+        <v>86.15</v>
       </c>
       <c r="M15" s="4">
         <v>4.7899999999999998E-2</v>
@@ -1564,8 +1587,8 @@
       <c r="N15" s="4">
         <v>81.877799999999993</v>
       </c>
-      <c r="O15" s="4">
-        <v>0.52210000000000001</v>
+      <c r="O15" s="5">
+        <v>52.21</v>
       </c>
       <c r="P15" s="4">
         <v>6.7599999999999993E-2</v>
@@ -1581,8 +1604,8 @@
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4">
-        <v>0.87160000000000004</v>
+      <c r="C16" s="5">
+        <v>87.160000000000011</v>
       </c>
       <c r="D16" s="4">
         <v>2.1100000000000001E-2</v>
@@ -1590,8 +1613,8 @@
       <c r="E16" s="4">
         <v>16.793500000000002</v>
       </c>
-      <c r="F16" s="4">
-        <v>0.54430000000000001</v>
+      <c r="F16" s="5">
+        <v>54.43</v>
       </c>
       <c r="G16" s="4">
         <v>9.1200000000000003E-2</v>
@@ -1605,8 +1628,8 @@
       <c r="K16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="4">
-        <v>0.82779999999999998</v>
+      <c r="L16" s="5">
+        <v>82.78</v>
       </c>
       <c r="M16" s="4">
         <v>5.62E-2</v>
@@ -1614,8 +1637,8 @@
       <c r="N16" s="4">
         <v>89.332999999999998</v>
       </c>
-      <c r="O16" s="4">
-        <v>0.54510000000000003</v>
+      <c r="O16" s="5">
+        <v>54.510000000000005</v>
       </c>
       <c r="P16" s="4">
         <v>3.95E-2</v>
@@ -1631,8 +1654,8 @@
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4">
-        <v>0.8871</v>
+      <c r="C17" s="5">
+        <v>88.71</v>
       </c>
       <c r="D17" s="4">
         <v>3.4700000000000002E-2</v>
@@ -1640,8 +1663,8 @@
       <c r="E17" s="4">
         <v>91.861999999999995</v>
       </c>
-      <c r="F17" s="4">
-        <v>0.71109999999999995</v>
+      <c r="F17" s="5">
+        <v>71.11</v>
       </c>
       <c r="G17" s="4">
         <v>3.1199999999999999E-2</v>
@@ -1655,8 +1678,8 @@
       <c r="K17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="4">
-        <v>0.84850000000000003</v>
+      <c r="L17" s="5">
+        <v>84.850000000000009</v>
       </c>
       <c r="M17" s="4">
         <v>4.8500000000000001E-2</v>
@@ -1664,8 +1687,8 @@
       <c r="N17" s="4">
         <v>86.046499999999995</v>
       </c>
-      <c r="O17" s="4">
-        <v>0.50649999999999995</v>
+      <c r="O17" s="5">
+        <v>50.649999999999991</v>
       </c>
       <c r="P17" s="4">
         <v>7.1999999999999995E-2</v>
@@ -1681,8 +1704,8 @@
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4">
-        <v>0.92130000000000001</v>
+      <c r="C18" s="5">
+        <v>92.13</v>
       </c>
       <c r="D18" s="4">
         <v>2.4E-2</v>
@@ -1690,8 +1713,8 @@
       <c r="E18" s="4">
         <v>71.270799999999994</v>
       </c>
-      <c r="F18" s="4">
-        <v>0.77710000000000001</v>
+      <c r="F18" s="5">
+        <v>77.710000000000008</v>
       </c>
       <c r="G18" s="4">
         <v>1.5699999999999999E-2</v>
@@ -1705,8 +1728,8 @@
       <c r="K18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="4">
-        <v>0.82069999999999999</v>
+      <c r="L18" s="5">
+        <v>82.07</v>
       </c>
       <c r="M18" s="4">
         <v>5.6099999999999997E-2</v>
@@ -1714,8 +1737,8 @@
       <c r="N18" s="4">
         <v>106.17489999999999</v>
       </c>
-      <c r="O18" s="4">
-        <v>0.5524</v>
+      <c r="O18" s="5">
+        <v>55.24</v>
       </c>
       <c r="P18" s="4">
         <v>4.1099999999999998E-2</v>
@@ -1731,8 +1754,8 @@
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="4">
-        <v>0.93400000000000005</v>
+      <c r="C19" s="5">
+        <v>93.4</v>
       </c>
       <c r="D19" s="4">
         <v>2.2599999999999999E-2</v>
@@ -1740,8 +1763,8 @@
       <c r="E19" s="4">
         <v>95.305700000000002</v>
       </c>
-      <c r="F19" s="4">
-        <v>0.70720000000000005</v>
+      <c r="F19" s="5">
+        <v>70.72</v>
       </c>
       <c r="G19" s="4">
         <v>5.4899999999999997E-2</v>
@@ -1755,8 +1778,8 @@
       <c r="K19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L19" s="4">
-        <v>0.83650000000000002</v>
+      <c r="L19" s="5">
+        <v>83.65</v>
       </c>
       <c r="M19" s="4">
         <v>4.24E-2</v>
@@ -1764,8 +1787,8 @@
       <c r="N19" s="4">
         <v>31.140999999999998</v>
       </c>
-      <c r="O19" s="4">
-        <v>0.58560000000000001</v>
+      <c r="O19" s="5">
+        <v>58.56</v>
       </c>
       <c r="P19" s="4">
         <v>6.6500000000000004E-2</v>
@@ -1781,8 +1804,8 @@
       <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="4">
-        <v>0.86750000000000005</v>
+      <c r="C20" s="5">
+        <v>86.75</v>
       </c>
       <c r="D20" s="4">
         <v>3.4799999999999998E-2</v>
@@ -1790,8 +1813,8 @@
       <c r="E20" s="4">
         <v>84.852999999999994</v>
       </c>
-      <c r="F20" s="4">
-        <v>0.59860000000000002</v>
+      <c r="F20" s="5">
+        <v>59.86</v>
       </c>
       <c r="G20" s="4">
         <v>6.93E-2</v>
@@ -1805,8 +1828,8 @@
       <c r="K20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="4">
-        <v>0.87370000000000003</v>
+      <c r="L20" s="5">
+        <v>87.37</v>
       </c>
       <c r="M20" s="4">
         <v>4.0800000000000003E-2</v>
@@ -1814,8 +1837,8 @@
       <c r="N20" s="4">
         <v>63.408799999999999</v>
       </c>
-      <c r="O20" s="4">
-        <v>0.57320000000000004</v>
+      <c r="O20" s="5">
+        <v>57.320000000000007</v>
       </c>
       <c r="P20" s="4">
         <v>6.88E-2</v>
@@ -1831,8 +1854,8 @@
       <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="4">
-        <v>0.89790000000000003</v>
+      <c r="C21" s="5">
+        <v>89.79</v>
       </c>
       <c r="D21" s="4">
         <v>2.52E-2</v>
@@ -1840,8 +1863,8 @@
       <c r="E21" s="4">
         <v>41.567900000000002</v>
       </c>
-      <c r="F21" s="4">
-        <v>0.64849999999999997</v>
+      <c r="F21" s="5">
+        <v>64.849999999999994</v>
       </c>
       <c r="G21" s="4">
         <v>7.9899999999999999E-2</v>
@@ -1855,8 +1878,8 @@
       <c r="K21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="4">
-        <v>0.86299999999999999</v>
+      <c r="L21" s="5">
+        <v>86.3</v>
       </c>
       <c r="M21" s="4">
         <v>3.6900000000000002E-2</v>
@@ -1864,8 +1887,8 @@
       <c r="N21" s="4">
         <v>27.4678</v>
       </c>
-      <c r="O21" s="4">
-        <v>0.62239999999999995</v>
+      <c r="O21" s="5">
+        <v>62.239999999999995</v>
       </c>
       <c r="P21" s="4">
         <v>6.5199999999999994E-2</v>
@@ -1881,8 +1904,8 @@
       <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="4">
-        <v>0.89559999999999995</v>
+      <c r="C22" s="5">
+        <v>89.56</v>
       </c>
       <c r="D22" s="4">
         <v>1.9199999999999998E-2</v>
@@ -1890,8 +1913,8 @@
       <c r="E22" s="4">
         <v>16.114599999999999</v>
       </c>
-      <c r="F22" s="4">
-        <v>0.6613</v>
+      <c r="F22" s="5">
+        <v>66.13</v>
       </c>
       <c r="G22" s="4">
         <v>9.4100000000000003E-2</v>
@@ -1905,8 +1928,8 @@
       <c r="K22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L22" s="4">
-        <v>0.86499999999999999</v>
+      <c r="L22" s="5">
+        <v>86.5</v>
       </c>
       <c r="M22" s="4">
         <v>3.8199999999999998E-2</v>
@@ -1914,8 +1937,8 @@
       <c r="N22" s="4">
         <v>49.787700000000001</v>
       </c>
-      <c r="O22" s="4">
-        <v>0.67269999999999996</v>
+      <c r="O22" s="5">
+        <v>67.27</v>
       </c>
       <c r="P22" s="4">
         <v>3.1899999999999998E-2</v>
@@ -1931,8 +1954,8 @@
       <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="4">
-        <v>0.93240000000000001</v>
+      <c r="C23" s="5">
+        <v>93.24</v>
       </c>
       <c r="D23" s="4">
         <v>2.1000000000000001E-2</v>
@@ -1940,8 +1963,8 @@
       <c r="E23" s="4">
         <v>126.72199999999999</v>
       </c>
-      <c r="F23" s="4">
-        <v>0.65869999999999995</v>
+      <c r="F23" s="5">
+        <v>65.86999999999999</v>
       </c>
       <c r="G23" s="4">
         <v>7.3800000000000004E-2</v>
@@ -1955,8 +1978,8 @@
       <c r="K23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="4">
-        <v>0.8357</v>
+      <c r="L23" s="5">
+        <v>83.57</v>
       </c>
       <c r="M23" s="4">
         <v>4.3400000000000001E-2</v>
@@ -1964,8 +1987,8 @@
       <c r="N23" s="4">
         <v>71.613600000000005</v>
       </c>
-      <c r="O23" s="4">
-        <v>0.59760000000000002</v>
+      <c r="O23" s="5">
+        <v>59.760000000000005</v>
       </c>
       <c r="P23" s="4">
         <v>2.8500000000000001E-2</v>
@@ -1981,8 +2004,8 @@
       <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="4">
-        <v>0.85119999999999996</v>
+      <c r="C24" s="5">
+        <v>85.11999999999999</v>
       </c>
       <c r="D24" s="4">
         <v>3.9199999999999999E-2</v>
@@ -1990,8 +2013,8 @@
       <c r="E24" s="4">
         <v>70.845500000000001</v>
       </c>
-      <c r="F24" s="4">
-        <v>0.55920000000000003</v>
+      <c r="F24" s="5">
+        <v>55.92</v>
       </c>
       <c r="G24" s="4">
         <v>7.0300000000000001E-2</v>
@@ -2005,8 +2028,8 @@
       <c r="K24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L24" s="4">
-        <v>0.86860000000000004</v>
+      <c r="L24" s="5">
+        <v>86.86</v>
       </c>
       <c r="M24" s="4">
         <v>3.5799999999999998E-2</v>
@@ -2014,8 +2037,8 @@
       <c r="N24" s="4">
         <v>56.949599999999997</v>
       </c>
-      <c r="O24" s="4">
-        <v>0.69120000000000004</v>
+      <c r="O24" s="5">
+        <v>69.12</v>
       </c>
       <c r="P24" s="4">
         <v>2.18E-2</v>
@@ -2031,8 +2054,8 @@
       <c r="B25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="4">
-        <v>0.85760000000000003</v>
+      <c r="C25" s="5">
+        <v>85.76</v>
       </c>
       <c r="D25" s="4">
         <v>3.8199999999999998E-2</v>
@@ -2040,8 +2063,8 @@
       <c r="E25" s="4">
         <v>52.992100000000001</v>
       </c>
-      <c r="F25" s="4">
-        <v>0.54159999999999997</v>
+      <c r="F25" s="5">
+        <v>54.16</v>
       </c>
       <c r="G25" s="4">
         <v>8.5699999999999998E-2</v>
@@ -2055,8 +2078,8 @@
       <c r="K25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L25" s="4">
-        <v>0.89490000000000003</v>
+      <c r="L25" s="5">
+        <v>89.490000000000009</v>
       </c>
       <c r="M25" s="4">
         <v>2.7799999999999998E-2</v>
@@ -2064,8 +2087,8 @@
       <c r="N25" s="4">
         <v>22.668099999999999</v>
       </c>
-      <c r="O25" s="4">
-        <v>0.63819999999999999</v>
+      <c r="O25" s="5">
+        <v>63.82</v>
       </c>
       <c r="P25" s="4">
         <v>8.4599999999999995E-2</v>
@@ -2081,8 +2104,8 @@
       <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="4">
-        <v>0.92479999999999996</v>
+      <c r="C26" s="5">
+        <v>92.47999999999999</v>
       </c>
       <c r="D26" s="4">
         <v>2.3900000000000001E-2</v>
@@ -2090,8 +2113,8 @@
       <c r="E26" s="4">
         <v>46.303600000000003</v>
       </c>
-      <c r="F26" s="4">
-        <v>0.70109999999999995</v>
+      <c r="F26" s="5">
+        <v>70.11</v>
       </c>
       <c r="G26" s="4">
         <v>7.0099999999999996E-2</v>
@@ -2105,8 +2128,8 @@
       <c r="K26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="4">
-        <v>0.879</v>
+      <c r="L26" s="5">
+        <v>87.9</v>
       </c>
       <c r="M26" s="4">
         <v>3.27E-2</v>
@@ -2114,8 +2137,8 @@
       <c r="N26" s="4">
         <v>37.723100000000002</v>
       </c>
-      <c r="O26" s="4">
-        <v>0.60299999999999998</v>
+      <c r="O26" s="5">
+        <v>60.3</v>
       </c>
       <c r="P26" s="4">
         <v>7.2700000000000001E-2</v>
@@ -2131,8 +2154,8 @@
       <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="4">
-        <v>0.84789999999999999</v>
+      <c r="C27" s="5">
+        <v>84.789999999999992</v>
       </c>
       <c r="D27" s="4">
         <v>3.8600000000000002E-2</v>
@@ -2140,8 +2163,8 @@
       <c r="E27" s="4">
         <v>55.247999999999998</v>
       </c>
-      <c r="F27" s="4">
-        <v>0.56679999999999997</v>
+      <c r="F27" s="5">
+        <v>56.68</v>
       </c>
       <c r="G27" s="4">
         <v>6.59E-2</v>
@@ -2155,8 +2178,8 @@
       <c r="K27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L27" s="4">
-        <v>0.87709999999999999</v>
+      <c r="L27" s="5">
+        <v>87.71</v>
       </c>
       <c r="M27" s="4">
         <v>3.9699999999999999E-2</v>
@@ -2164,740 +2187,14 @@
       <c r="N27" s="4">
         <v>74.84</v>
       </c>
-      <c r="O27" s="4">
-        <v>0.56010000000000004</v>
+      <c r="O27" s="5">
+        <v>56.010000000000005</v>
       </c>
       <c r="P27" s="4">
         <v>8.1299999999999997E-2</v>
       </c>
       <c r="Q27" s="4">
         <v>1.4758999999999999E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD8E121-67F2-491A-AE25-2ACF1A2E0506}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A2:Q15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="J2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>11.1029</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.62109999999999999</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2.18E-2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1.2809E-4</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0.79569999999999996</v>
-      </c>
-      <c r="M4" s="4">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="N4" s="4">
-        <v>23.698799999999999</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0.53080000000000005</v>
-      </c>
-      <c r="P4" s="4">
-        <v>8.1699999999999995E-2</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>1.3579E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.90129999999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.6100000000000002E-2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5.9006999999999996</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.79769999999999996</v>
-      </c>
-      <c r="G5" s="4">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>5.9605000000000003E-5</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0.79979999999999996</v>
-      </c>
-      <c r="M5" s="4">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="N5" s="4">
-        <v>22.345500000000001</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.56969999999999998</v>
-      </c>
-      <c r="P5" s="4">
-        <v>6.3E-2</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>2.5871999999999999E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.86819999999999997</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2.4085000000000001</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.4884</v>
-      </c>
-      <c r="G6" s="4">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3.4873000000000003E-5</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0.82179999999999997</v>
-      </c>
-      <c r="M6" s="4">
-        <v>5.3499999999999999E-2</v>
-      </c>
-      <c r="N6" s="4">
-        <v>48.586599999999997</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.51290000000000002</v>
-      </c>
-      <c r="P6" s="4">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>1.5152000000000001E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.74880000000000002</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4.41E-2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>16.886800000000001</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.44369999999999998</v>
-      </c>
-      <c r="G7" s="4">
-        <v>9.6799999999999997E-2</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1.4478000000000001E-4</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="M7" s="4">
-        <v>5.7299999999999997E-2</v>
-      </c>
-      <c r="N7" s="4">
-        <v>22.620999999999999</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="P7" s="4">
-        <v>5.9900000000000002E-2</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>6.9317000000000001E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.87419999999999998</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>16.613499999999998</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.48970000000000002</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.1363</v>
-      </c>
-      <c r="H8" s="4">
-        <v>6.8300999999999995E-5</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0.74229999999999996</v>
-      </c>
-      <c r="M8" s="4">
-        <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="N8" s="4">
-        <v>38.615200000000002</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0.54569999999999996</v>
-      </c>
-      <c r="P8" s="4">
-        <v>3.2599999999999997E-2</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>2.5558999999999998E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.65039999999999998</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.1074</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.49590000000000001</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.43190000000000001</v>
-      </c>
-      <c r="G9" s="4">
-        <v>9.5200000000000007E-2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1.2394E-5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0.69830000000000003</v>
-      </c>
-      <c r="M9" s="4">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="N9" s="4">
-        <v>17.711400000000001</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0.53010000000000002</v>
-      </c>
-      <c r="P9" s="4">
-        <v>3.8100000000000002E-2</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>3.6898999999999998E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.94089999999999996</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>27.159800000000001</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.78110000000000002</v>
-      </c>
-      <c r="G10" s="4">
-        <v>6.4299999999999996E-2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1.1105E-4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0.90580000000000005</v>
-      </c>
-      <c r="M10" s="4">
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="N10" s="4">
-        <v>8.6476000000000006</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.64749999999999996</v>
-      </c>
-      <c r="P10" s="4">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>3.1741E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.88690000000000002</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="E11" s="4">
-        <v>10.7416</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.70479999999999998</v>
-      </c>
-      <c r="G11" s="4">
-        <v>7.3400000000000007E-2</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1.1875999999999999E-4</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0.87070000000000003</v>
-      </c>
-      <c r="M11" s="4">
-        <v>6.2E-2</v>
-      </c>
-      <c r="N11" s="4">
-        <v>2.6402000000000001</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.60770000000000002</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0.12470000000000001</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>5.3022999999999997E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.93540000000000001</v>
-      </c>
-      <c r="D12" s="4">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="E12" s="4">
-        <v>10.5357</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.69840000000000002</v>
-      </c>
-      <c r="G12" s="4">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>6.5554000000000003E-5</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0.88549999999999995</v>
-      </c>
-      <c r="M12" s="4">
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="N12" s="4">
-        <v>14.404199999999999</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0.66869999999999996</v>
-      </c>
-      <c r="P12" s="4">
-        <v>6.9800000000000001E-2</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>7.6656000000000006E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.84830000000000005</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3.61E-2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>28.9541</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.67549999999999999</v>
-      </c>
-      <c r="G13" s="4">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2.1227999999999999E-4</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0.81540000000000001</v>
-      </c>
-      <c r="M13" s="4">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="N13" s="4">
-        <v>16.568200000000001</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0.69779999999999998</v>
-      </c>
-      <c r="P13" s="4">
-        <v>2.8199999999999999E-2</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>2.0882999999999999E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2.01E-2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20.941099999999999</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.75229999999999997</v>
-      </c>
-      <c r="G14" s="4">
-        <v>4.41E-2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>9.1618000000000003E-5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0.85780000000000001</v>
-      </c>
-      <c r="M14" s="4">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="N14" s="4">
-        <v>16.3766</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.63859999999999995</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0.11409999999999999</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>1.154E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.86770000000000003</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>34.053800000000003</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.61460000000000004</v>
-      </c>
-      <c r="G15" s="4">
-        <v>4.99E-2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>6.1890999999999994E-5</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.79330000000000001</v>
-      </c>
-      <c r="M15" s="4">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="N15" s="4">
-        <v>66.0321</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.55740000000000001</v>
-      </c>
-      <c r="P15" s="4">
-        <v>4.8899999999999999E-2</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>2.4834999999999999E-4</v>
       </c>
     </row>
   </sheetData>
@@ -2913,4 +2210,881 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD8E121-67F2-491A-AE25-2ACF1A2E0506}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A2:Q24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="J2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>77.100000000000009</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>11.1029</v>
+      </c>
+      <c r="F4" s="5">
+        <v>62.11</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.18E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.2809E-4</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="5">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="M4" s="4">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>23.698799999999999</v>
+      </c>
+      <c r="O4" s="5">
+        <v>53.080000000000005</v>
+      </c>
+      <c r="P4" s="4">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1.3579E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>90.13</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5.9006999999999996</v>
+      </c>
+      <c r="F5" s="5">
+        <v>79.77</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5.9605000000000003E-5</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="5">
+        <v>79.97999999999999</v>
+      </c>
+      <c r="M5" s="4">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>22.345500000000001</v>
+      </c>
+      <c r="O5" s="5">
+        <v>56.97</v>
+      </c>
+      <c r="P5" s="4">
+        <v>6.3E-2</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>2.5871999999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
+        <v>86.82</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.4085000000000001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>48.84</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.4873000000000003E-5</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="5">
+        <v>82.179999999999993</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>48.586599999999997</v>
+      </c>
+      <c r="O6" s="5">
+        <v>51.29</v>
+      </c>
+      <c r="P6" s="4">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1.5152000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>74.88</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.41E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>16.886800000000001</v>
+      </c>
+      <c r="F7" s="5">
+        <v>44.37</v>
+      </c>
+      <c r="G7" s="4">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.4478000000000001E-4</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="5">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="M7" s="4">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>22.620999999999999</v>
+      </c>
+      <c r="O7" s="5">
+        <v>52.900000000000006</v>
+      </c>
+      <c r="P7" s="4">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>6.9317000000000001E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5">
+        <v>87.42</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>16.613499999999998</v>
+      </c>
+      <c r="F8" s="5">
+        <v>48.97</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.1363</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6.8300999999999995E-5</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="5">
+        <v>74.22999999999999</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="N8" s="4">
+        <v>38.615200000000002</v>
+      </c>
+      <c r="O8" s="5">
+        <v>54.569999999999993</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>2.5558999999999998E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5">
+        <v>65.039999999999992</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.1074</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.49590000000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43.19</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.2394E-5</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="5">
+        <v>69.83</v>
+      </c>
+      <c r="M9" s="4">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>17.711400000000001</v>
+      </c>
+      <c r="O9" s="5">
+        <v>53.010000000000005</v>
+      </c>
+      <c r="P9" s="4">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>3.6898999999999998E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5">
+        <v>94.089999999999989</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>27.159800000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>78.11</v>
+      </c>
+      <c r="G10" s="4">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.1105E-4</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="5">
+        <v>90.58</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>8.6476000000000006</v>
+      </c>
+      <c r="O10" s="5">
+        <v>64.75</v>
+      </c>
+      <c r="P10" s="4">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>3.1741E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
+        <v>88.69</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10.7416</v>
+      </c>
+      <c r="F11" s="5">
+        <v>70.48</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.1875999999999999E-4</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="5">
+        <v>87.070000000000007</v>
+      </c>
+      <c r="M11" s="4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2.6402000000000001</v>
+      </c>
+      <c r="O11" s="5">
+        <v>60.77</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.12470000000000001</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>5.3022999999999997E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5">
+        <v>93.54</v>
+      </c>
+      <c r="D12" s="4">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10.5357</v>
+      </c>
+      <c r="F12" s="5">
+        <v>69.84</v>
+      </c>
+      <c r="G12" s="4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>6.5554000000000003E-5</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="5">
+        <v>88.55</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="N12" s="4">
+        <v>14.404199999999999</v>
+      </c>
+      <c r="O12" s="5">
+        <v>66.86999999999999</v>
+      </c>
+      <c r="P12" s="4">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>7.6656000000000006E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5">
+        <v>84.830000000000013</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3.61E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>28.9541</v>
+      </c>
+      <c r="F13" s="5">
+        <v>67.55</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2.1227999999999999E-4</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="5">
+        <v>81.540000000000006</v>
+      </c>
+      <c r="M13" s="4">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="N13" s="4">
+        <v>16.568200000000001</v>
+      </c>
+      <c r="O13" s="5">
+        <v>69.78</v>
+      </c>
+      <c r="P13" s="4">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>2.0882999999999999E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5">
+        <v>90.5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.01E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>20.941099999999999</v>
+      </c>
+      <c r="F14" s="5">
+        <v>75.22999999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4.41E-2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>9.1618000000000003E-5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="5">
+        <v>85.78</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="N14" s="4">
+        <v>16.3766</v>
+      </c>
+      <c r="O14" s="5">
+        <v>63.859999999999992</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1.154E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5">
+        <v>86.77</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>34.053800000000003</v>
+      </c>
+      <c r="F15" s="5">
+        <v>61.46</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4.99E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>6.1890999999999994E-5</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="5">
+        <v>79.33</v>
+      </c>
+      <c r="M15" s="4">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="N15" s="4">
+        <v>66.0321</v>
+      </c>
+      <c r="O15" s="5">
+        <v>55.74</v>
+      </c>
+      <c r="P15" s="4">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>2.4834999999999999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="5">
+        <v>79.55</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="F16" s="5">
+        <v>6.69</v>
+      </c>
+      <c r="G16" s="4">
+        <v>43.889699999999998</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2.0217999999999999E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="5">
+        <v>84.84</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <v>11.55</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5.9950000000000001</v>
+      </c>
+      <c r="H17" s="4">
+        <v>7.8407999999999999E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="5">
+        <v>87.24</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.92E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.46989999999999998</v>
+      </c>
+      <c r="F18" s="5">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="G18" s="4">
+        <v>13.314399999999999</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3.8727999999999999E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="5">
+        <v>77.12</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5.04E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10.280000000000001</v>
+      </c>
+      <c r="G19" s="4">
+        <v>12.843400000000001</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1.7681000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="5">
+        <v>87.3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.58660000000000001</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="G20" s="4">
+        <v>13.039099999999999</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.0477E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5">
+        <v>80.38</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="F21" s="5">
+        <v>7.4399999999999995</v>
+      </c>
+      <c r="G21" s="4">
+        <v>15.930400000000001</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.5924E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SLIM_Bitcoin_Compression_Result_Summary.xlsx
+++ b/SLIM_Bitcoin_Compression_Result_Summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoinc\Dropbox\PHD\My_Thesis\Viva_RW\Corrections_RW\Result_Excel_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoinc\Documents\GitHub\Slim-Thesis-Result-Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A97D960-A4A5-404F-A3AE-F1D370CCF79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F61660C0-3B60-4843-A834-57AE0E66A7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="4545" windowWidth="23250" windowHeight="14970" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6450" yWindow="4110" windowWidth="23250" windowHeight="14970" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day Level" sheetId="16" r:id="rId1"/>
@@ -696,7 +696,7 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -899,7 +899,7 @@
   </sheetPr>
   <dimension ref="A2:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -2219,8 +2219,8 @@
   </sheetPr>
   <dimension ref="A2:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2931,7 +2931,7 @@
         <v>0.52300000000000002</v>
       </c>
       <c r="F16" s="5">
-        <v>6.69</v>
+        <v>52.300000000000004</v>
       </c>
       <c r="G16" s="4">
         <v>43.889699999999998</v>
@@ -2957,7 +2957,7 @@
         <v>0.56669999999999998</v>
       </c>
       <c r="F17" s="5">
-        <v>11.55</v>
+        <v>56.67</v>
       </c>
       <c r="G17" s="4">
         <v>5.9950000000000001</v>
@@ -2983,7 +2983,7 @@
         <v>0.46989999999999998</v>
       </c>
       <c r="F18" s="5">
-        <v>9.2899999999999991</v>
+        <v>46.989999999999995</v>
       </c>
       <c r="G18" s="4">
         <v>13.314399999999999</v>
@@ -3009,7 +3009,7 @@
         <v>0.49969999999999998</v>
       </c>
       <c r="F19" s="5">
-        <v>10.280000000000001</v>
+        <v>49.97</v>
       </c>
       <c r="G19" s="4">
         <v>12.843400000000001</v>
@@ -3035,7 +3035,7 @@
         <v>0.58660000000000001</v>
       </c>
       <c r="F20" s="5">
-        <v>10.8</v>
+        <v>58.660000000000004</v>
       </c>
       <c r="G20" s="4">
         <v>13.039099999999999</v>
@@ -3061,7 +3061,7 @@
         <v>0.54239999999999999</v>
       </c>
       <c r="F21" s="5">
-        <v>7.4399999999999995</v>
+        <v>54.24</v>
       </c>
       <c r="G21" s="4">
         <v>15.930400000000001</v>

--- a/SLIM_Bitcoin_Compression_Result_Summary.xlsx
+++ b/SLIM_Bitcoin_Compression_Result_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoinc\Documents\GitHub\Slim-Thesis-Result-Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F61660C0-3B60-4843-A834-57AE0E66A7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E234A4-DF24-49A9-92F1-EA278BE154E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="4110" windowWidth="23250" windowHeight="14970" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="18345" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day Level" sheetId="16" r:id="rId1"/>
@@ -696,8 +696,8 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,8 +2219,8 @@
   </sheetPr>
   <dimension ref="A2:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,13 +2928,13 @@
         <v>5.1799999999999999E-2</v>
       </c>
       <c r="E16" s="4">
-        <v>0.52300000000000002</v>
+        <v>43.889699999999998</v>
       </c>
       <c r="F16" s="5">
         <v>52.300000000000004</v>
       </c>
       <c r="G16" s="4">
-        <v>43.889699999999998</v>
+        <v>6.6900000000000001E-2</v>
       </c>
       <c r="H16" s="4">
         <v>2.0217999999999999E-4</v>
@@ -2954,13 +2954,13 @@
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="E17" s="4">
-        <v>0.56669999999999998</v>
+        <v>5.9950000000000001</v>
       </c>
       <c r="F17" s="5">
         <v>56.67</v>
       </c>
       <c r="G17" s="4">
-        <v>5.9950000000000001</v>
+        <v>0.11550000000000001</v>
       </c>
       <c r="H17" s="4">
         <v>7.8407999999999999E-5</v>
@@ -2980,13 +2980,13 @@
         <v>2.92E-2</v>
       </c>
       <c r="E18" s="4">
-        <v>0.46989999999999998</v>
+        <v>13.314399999999999</v>
       </c>
       <c r="F18" s="5">
         <v>46.989999999999995</v>
       </c>
       <c r="G18" s="4">
-        <v>13.314399999999999</v>
+        <v>9.2899999999999996E-2</v>
       </c>
       <c r="H18" s="4">
         <v>3.8727999999999999E-5</v>
@@ -3006,13 +3006,13 @@
         <v>5.04E-2</v>
       </c>
       <c r="E19" s="4">
-        <v>0.49969999999999998</v>
+        <v>12.843400000000001</v>
       </c>
       <c r="F19" s="5">
         <v>49.97</v>
       </c>
       <c r="G19" s="4">
-        <v>12.843400000000001</v>
+        <v>0.1028</v>
       </c>
       <c r="H19" s="4">
         <v>1.7681000000000001E-4</v>
@@ -3032,13 +3032,13 @@
         <v>2.5700000000000001E-2</v>
       </c>
       <c r="E20" s="4">
-        <v>0.58660000000000001</v>
+        <v>13.039099999999999</v>
       </c>
       <c r="F20" s="5">
         <v>58.660000000000004</v>
       </c>
       <c r="G20" s="4">
-        <v>13.039099999999999</v>
+        <v>0.108</v>
       </c>
       <c r="H20" s="4">
         <v>1.0477E-4</v>
@@ -3058,13 +3058,13 @@
         <v>3.6499999999999998E-2</v>
       </c>
       <c r="E21" s="4">
-        <v>0.54239999999999999</v>
+        <v>15.930400000000001</v>
       </c>
       <c r="F21" s="5">
         <v>54.24</v>
       </c>
       <c r="G21" s="4">
-        <v>15.930400000000001</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="H21" s="4">
         <v>1.5924E-4</v>
